--- a/data/classifier_test/broad_assets_ht_trendmode_lag4_test.xlsx
+++ b/data/classifier_test/broad_assets_ht_trendmode_lag4_test.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L219"/>
+  <dimension ref="A1:L229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44018</v>
+        <v>43948</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -530,7 +530,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44025</v>
+        <v>43955</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -553,7 +553,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44032</v>
+        <v>43962</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -617,19 +617,19 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44039</v>
+        <v>43969</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44046</v>
+        <v>43973</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44053</v>
+        <v>43983</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -702,16 +702,16 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44060</v>
+        <v>43990</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -743,7 +743,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -758,18 +758,18 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44067</v>
+        <v>43997</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -781,22 +781,22 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44074</v>
+        <v>44004</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -819,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -834,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44078</v>
+        <v>44011</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -866,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -875,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44088</v>
+        <v>44018</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -895,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44095</v>
+        <v>44025</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -939,10 +939,10 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44102</v>
+        <v>44032</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -968,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -989,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
@@ -997,22 +997,22 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44109</v>
+        <v>44039</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1021,21 +1021,21 @@
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44116</v>
+        <v>44046</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -1044,19 +1044,19 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>1</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44123</v>
+        <v>44053</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -1082,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1097,21 +1097,21 @@
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44130</v>
+        <v>44060</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -1120,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44137</v>
+        <v>44067</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -1167,19 +1167,19 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>1</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44144</v>
+        <v>44074</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -1199,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44151</v>
+        <v>44078</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -1255,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44158</v>
+        <v>44088</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -1275,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44165</v>
+        <v>44095</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1319,16 +1319,16 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44172</v>
+        <v>44102</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -1348,16 +1348,16 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1372,12 +1372,12 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44179</v>
+        <v>44109</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -1389,10 +1389,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1404,10 +1404,10 @@
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
         <v>1</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44186</v>
+        <v>44116</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -1433,19 +1433,19 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44193</v>
+        <v>44123</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -1477,21 +1477,21 @@
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44200</v>
+        <v>44130</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -1500,10 +1500,10 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44207</v>
+        <v>44137</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -1538,10 +1538,10 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -1550,13 +1550,13 @@
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44211</v>
+        <v>44144</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -1576,7 +1576,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -1594,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>1</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44221</v>
+        <v>44151</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -1614,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -1623,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -1635,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>1</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44228</v>
+        <v>44158</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -1652,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -1661,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44235</v>
+        <v>44165</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -1690,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44239</v>
+        <v>44172</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -1728,16 +1728,16 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -1746,18 +1746,18 @@
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44249</v>
+        <v>44179</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -1766,10 +1766,10 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1</v>
@@ -1795,16 +1795,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44256</v>
+        <v>44186</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1822,10 +1822,10 @@
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" t="n">
         <v>1</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44263</v>
+        <v>44193</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
@@ -1842,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1854,13 +1854,13 @@
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
         <v>1</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44270</v>
+        <v>44200</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -1898,10 +1898,10 @@
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
         <v>1</v>
@@ -1909,19 +1909,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44277</v>
+        <v>44207</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
@@ -1936,10 +1936,10 @@
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>1</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44284</v>
+        <v>44211</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
@@ -1956,19 +1956,19 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44291</v>
+        <v>44221</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
@@ -2003,10 +2003,10 @@
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44298</v>
+        <v>44228</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
@@ -2032,7 +2032,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
@@ -2041,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44305</v>
+        <v>44235</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
@@ -2073,10 +2073,10 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2091,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
         <v>1</v>
@@ -2099,37 +2099,37 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44312</v>
+        <v>44239</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
         <v>1</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44319</v>
+        <v>44249</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
@@ -2149,10 +2149,10 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2161,13 +2161,13 @@
         <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
         <v>1</v>
@@ -2175,22 +2175,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44326</v>
+        <v>44256</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2199,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2208,12 +2208,12 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44333</v>
+        <v>44263</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -2234,13 +2234,13 @@
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
         <v>1</v>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44340</v>
+        <v>44270</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -2278,10 +2278,10 @@
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>1</v>
@@ -2289,13 +2289,13 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44344</v>
+        <v>44277</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
@@ -2316,7 +2316,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>1</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44354</v>
+        <v>44284</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -2336,22 +2336,22 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -2365,10 +2365,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44361</v>
+        <v>44291</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -2377,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
         <v>1</v>
@@ -2386,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -2403,10 +2403,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44368</v>
+        <v>44298</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
@@ -2415,7 +2415,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
         <v>1</v>
@@ -2441,22 +2441,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44375</v>
+        <v>44305</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2471,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>1</v>
@@ -2479,13 +2479,13 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44379</v>
+        <v>44312</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
@@ -2500,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -2509,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>1</v>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44389</v>
+        <v>44319</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
@@ -2532,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2541,13 +2541,13 @@
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>1</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44396</v>
+        <v>44326</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -2579,13 +2579,13 @@
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44403</v>
+        <v>44333</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -2626,12 +2626,12 @@
         <v>1</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44410</v>
+        <v>44340</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -2655,7 +2655,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44417</v>
+        <v>44344</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
         <v>1</v>
@@ -2690,7 +2690,7 @@
         <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -2699,15 +2699,15 @@
         <v>1</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44424</v>
+        <v>44354</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -2716,10 +2716,10 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
         <v>1</v>
@@ -2731,13 +2731,13 @@
         <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" t="n">
         <v>1</v>
@@ -2745,10 +2745,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44431</v>
+        <v>44361</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -2757,7 +2757,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
         <v>1</v>
@@ -2766,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -2775,18 +2775,18 @@
         <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44438</v>
+        <v>44368</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -2795,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
         <v>1</v>
@@ -2810,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
         <v>1</v>
@@ -2821,13 +2821,13 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44442</v>
+        <v>44375</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
@@ -2848,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
         <v>1</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44452</v>
+        <v>44379</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
@@ -2868,13 +2868,13 @@
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2886,18 +2886,18 @@
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
         <v>1</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44459</v>
+        <v>44389</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
@@ -2909,7 +2909,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
         <v>1</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
         <v>1</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44466</v>
+        <v>44396</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
@@ -2944,13 +2944,13 @@
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2959,7 +2959,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
         <v>1</v>
@@ -2968,12 +2968,12 @@
         <v>1</v>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44473</v>
+        <v>44403</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -3000,21 +3000,21 @@
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
         <v>1</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44480</v>
+        <v>44410</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
@@ -3029,19 +3029,19 @@
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" t="n">
         <v>1</v>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44487</v>
+        <v>44417</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -3058,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -3070,27 +3070,27 @@
         <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44494</v>
+        <v>44424</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
@@ -3114,10 +3114,10 @@
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>1</v>
@@ -3125,7 +3125,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44501</v>
+        <v>44431</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -3140,13 +3140,13 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -3155,15 +3155,15 @@
         <v>1</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44508</v>
+        <v>44438</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3190,7 +3190,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
         <v>1</v>
@@ -3201,19 +3201,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44515</v>
+        <v>44442</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
         <v>1</v>
@@ -3228,10 +3228,10 @@
         <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" t="n">
         <v>1</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44522</v>
+        <v>44452</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -3248,13 +3248,13 @@
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3272,12 +3272,12 @@
         <v>1</v>
       </c>
       <c r="L74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44529</v>
+        <v>44459</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
@@ -3289,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
         <v>1</v>
@@ -3301,13 +3301,13 @@
         <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>1</v>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44536</v>
+        <v>44466</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
@@ -3324,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -3342,18 +3342,18 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" t="n">
         <v>1</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44543</v>
+        <v>44473</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
@@ -3362,7 +3362,7 @@
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -3377,30 +3377,30 @@
         <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
         <v>1</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44550</v>
+        <v>44480</v>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -3409,16 +3409,16 @@
         <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44557</v>
+        <v>44487</v>
       </c>
       <c r="B79" t="n">
         <v>1</v>
@@ -3447,7 +3447,7 @@
         <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
         <v>1</v>
@@ -3456,7 +3456,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
         <v>1</v>
@@ -3467,10 +3467,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44564</v>
+        <v>44494</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
@@ -3479,7 +3479,7 @@
         <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
         <v>1</v>
@@ -3494,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
         <v>1</v>
@@ -3505,22 +3505,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44571</v>
+        <v>44501</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3543,22 +3543,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44575</v>
+        <v>44508</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3573,27 +3573,27 @@
         <v>1</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44585</v>
+        <v>44515</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
         <v>1</v>
@@ -3605,13 +3605,13 @@
         <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
         <v>1</v>
       </c>
       <c r="K83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>1</v>
@@ -3619,7 +3619,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44592</v>
+        <v>44522</v>
       </c>
       <c r="B84" t="n">
         <v>1</v>
@@ -3631,7 +3631,7 @@
         <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
         <v>1</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44599</v>
+        <v>44529</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85" t="n">
         <v>1</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44606</v>
+        <v>44536</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
@@ -3707,7 +3707,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
         <v>1</v>
@@ -3719,21 +3719,21 @@
         <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" t="n">
         <v>1</v>
       </c>
       <c r="L86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44610</v>
+        <v>44543</v>
       </c>
       <c r="B87" t="n">
         <v>1</v>
@@ -3745,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
@@ -3757,21 +3757,21 @@
         <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" t="n">
         <v>1</v>
       </c>
       <c r="L87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44620</v>
+        <v>44550</v>
       </c>
       <c r="B88" t="n">
         <v>1</v>
@@ -3780,10 +3780,10 @@
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
         <v>1</v>
@@ -3801,7 +3801,7 @@
         <v>1</v>
       </c>
       <c r="K88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>1</v>
@@ -3809,7 +3809,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44627</v>
+        <v>44557</v>
       </c>
       <c r="B89" t="n">
         <v>1</v>
@@ -3818,16 +3818,16 @@
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
         <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
         <v>1</v>
@@ -3836,10 +3836,10 @@
         <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" t="n">
         <v>1</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44634</v>
+        <v>44564</v>
       </c>
       <c r="B90" t="n">
         <v>1</v>
@@ -3859,7 +3859,7 @@
         <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
         <v>1</v>
@@ -3871,10 +3871,10 @@
         <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" t="n">
         <v>1</v>
@@ -3885,19 +3885,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44641</v>
+        <v>44571</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
         <v>1</v>
@@ -3906,13 +3906,13 @@
         <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" t="n">
         <v>1</v>
@@ -3923,22 +3923,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44648</v>
+        <v>44575</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3953,15 +3953,15 @@
         <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44655</v>
+        <v>44585</v>
       </c>
       <c r="B93" t="n">
         <v>1</v>
@@ -3970,22 +3970,22 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
         <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
         <v>1</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44662</v>
+        <v>44592</v>
       </c>
       <c r="B94" t="n">
         <v>1</v>
@@ -4011,13 +4011,13 @@
         <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>1</v>
@@ -4026,7 +4026,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
         <v>1</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44669</v>
+        <v>44599</v>
       </c>
       <c r="B95" t="n">
         <v>1</v>
@@ -4061,10 +4061,10 @@
         <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
         <v>0</v>
@@ -4075,7 +4075,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44676</v>
+        <v>44606</v>
       </c>
       <c r="B96" t="n">
         <v>1</v>
@@ -4105,7 +4105,7 @@
         <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" t="n">
         <v>1</v>
@@ -4113,7 +4113,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44683</v>
+        <v>44610</v>
       </c>
       <c r="B97" t="n">
         <v>1</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" t="n">
         <v>1</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44690</v>
+        <v>44620</v>
       </c>
       <c r="B98" t="n">
         <v>1</v>
@@ -4175,21 +4175,21 @@
         <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
         <v>1</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44697</v>
+        <v>44627</v>
       </c>
       <c r="B99" t="n">
         <v>1</v>
@@ -4216,10 +4216,10 @@
         <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>1</v>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44704</v>
+        <v>44634</v>
       </c>
       <c r="B100" t="n">
         <v>1</v>
@@ -4251,10 +4251,10 @@
         <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" t="n">
         <v>1</v>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44708</v>
+        <v>44641</v>
       </c>
       <c r="B101" t="n">
         <v>1</v>
@@ -4286,13 +4286,13 @@
         <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K101" t="n">
         <v>1</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44718</v>
+        <v>44648</v>
       </c>
       <c r="B102" t="n">
         <v>1</v>
@@ -4318,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4336,12 +4336,12 @@
         <v>1</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44725</v>
+        <v>44655</v>
       </c>
       <c r="B103" t="n">
         <v>1</v>
@@ -4350,7 +4350,7 @@
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
         <v>1</v>
@@ -4359,7 +4359,7 @@
         <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
         <v>1</v>
@@ -4379,7 +4379,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44732</v>
+        <v>44662</v>
       </c>
       <c r="B104" t="n">
         <v>1</v>
@@ -4391,19 +4391,19 @@
         <v>1</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104" t="n">
         <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
         <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
         <v>1</v>
@@ -4412,12 +4412,12 @@
         <v>1</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44739</v>
+        <v>44669</v>
       </c>
       <c r="B105" t="n">
         <v>1</v>
@@ -4447,7 +4447,7 @@
         <v>1</v>
       </c>
       <c r="K105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>1</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44743</v>
+        <v>44676</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
         <v>1</v>
@@ -4482,7 +4482,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K106" t="n">
         <v>0</v>
@@ -4493,7 +4493,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44753</v>
+        <v>44683</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
@@ -4520,7 +4520,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K107" t="n">
         <v>0</v>
@@ -4531,7 +4531,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44760</v>
+        <v>44690</v>
       </c>
       <c r="B108" t="n">
         <v>1</v>
@@ -4555,7 +4555,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
         <v>1</v>
@@ -4564,18 +4564,18 @@
         <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44767</v>
+        <v>44697</v>
       </c>
       <c r="B109" t="n">
         <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109" t="n">
         <v>1</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44774</v>
+        <v>44704</v>
       </c>
       <c r="B110" t="n">
         <v>1</v>
@@ -4625,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44781</v>
+        <v>44708</v>
       </c>
       <c r="B111" t="n">
         <v>1</v>
@@ -4683,10 +4683,10 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44788</v>
+        <v>44718</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
         <v>1</v>
@@ -4698,10 +4698,10 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
@@ -4716,12 +4716,12 @@
         <v>1</v>
       </c>
       <c r="L112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44795</v>
+        <v>44725</v>
       </c>
       <c r="B113" t="n">
         <v>1</v>
@@ -4745,7 +4745,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
         <v>1</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44802</v>
+        <v>44732</v>
       </c>
       <c r="B114" t="n">
         <v>1</v>
@@ -4771,7 +4771,7 @@
         <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
         <v>1</v>
@@ -4783,7 +4783,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
         <v>1</v>
@@ -4792,12 +4792,12 @@
         <v>1</v>
       </c>
       <c r="L114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44806</v>
+        <v>44739</v>
       </c>
       <c r="B115" t="n">
         <v>1</v>
@@ -4809,7 +4809,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="n">
         <v>1</v>
@@ -4824,7 +4824,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115" t="n">
         <v>1</v>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44816</v>
+        <v>44743</v>
       </c>
       <c r="B116" t="n">
         <v>1</v>
@@ -4862,10 +4862,10 @@
         <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L116" t="n">
         <v>1</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44823</v>
+        <v>44753</v>
       </c>
       <c r="B117" t="n">
         <v>1</v>
@@ -4897,7 +4897,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
         <v>1</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44830</v>
+        <v>44760</v>
       </c>
       <c r="B118" t="n">
         <v>1</v>
@@ -4926,7 +4926,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4935,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="n">
         <v>1</v>
@@ -4949,13 +4949,13 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44837</v>
+        <v>44767</v>
       </c>
       <c r="B119" t="n">
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
         <v>1</v>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44844</v>
+        <v>44774</v>
       </c>
       <c r="B120" t="n">
         <v>1</v>
@@ -5005,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
         <v>1</v>
@@ -5025,7 +5025,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44851</v>
+        <v>44781</v>
       </c>
       <c r="B121" t="n">
         <v>1</v>
@@ -5063,10 +5063,10 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44858</v>
+        <v>44788</v>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
         <v>1</v>
@@ -5078,10 +5078,10 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
         <v>1</v>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44865</v>
+        <v>44795</v>
       </c>
       <c r="B123" t="n">
         <v>1</v>
@@ -5125,7 +5125,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
         <v>1</v>
@@ -5139,7 +5139,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44872</v>
+        <v>44802</v>
       </c>
       <c r="B124" t="n">
         <v>1</v>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44879</v>
+        <v>44806</v>
       </c>
       <c r="B125" t="n">
         <v>1</v>
@@ -5189,16 +5189,16 @@
         <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44886</v>
+        <v>44816</v>
       </c>
       <c r="B126" t="n">
         <v>1</v>
@@ -5227,7 +5227,7 @@
         <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
         <v>1</v>
@@ -5242,7 +5242,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126" t="n">
         <v>1</v>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44893</v>
+        <v>44823</v>
       </c>
       <c r="B127" t="n">
         <v>1</v>
@@ -5277,21 +5277,21 @@
         <v>1</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
         <v>1</v>
       </c>
       <c r="K127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44900</v>
+        <v>44830</v>
       </c>
       <c r="B128" t="n">
         <v>1</v>
@@ -5303,10 +5303,10 @@
         <v>1</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5315,7 +5315,7 @@
         <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
         <v>1</v>
@@ -5329,7 +5329,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44907</v>
+        <v>44837</v>
       </c>
       <c r="B129" t="n">
         <v>1</v>
@@ -5338,7 +5338,7 @@
         <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129" t="n">
         <v>1</v>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44914</v>
+        <v>44844</v>
       </c>
       <c r="B130" t="n">
         <v>1</v>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44918</v>
+        <v>44851</v>
       </c>
       <c r="B131" t="n">
         <v>1</v>
@@ -5420,7 +5420,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5443,7 +5443,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44925</v>
+        <v>44858</v>
       </c>
       <c r="B132" t="n">
         <v>1</v>
@@ -5458,7 +5458,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5481,10 +5481,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44935</v>
+        <v>44865</v>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
         <v>1</v>
@@ -5499,7 +5499,7 @@
         <v>1</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
         <v>1</v>
@@ -5519,7 +5519,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44939</v>
+        <v>44872</v>
       </c>
       <c r="B134" t="n">
         <v>1</v>
@@ -5557,7 +5557,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44949</v>
+        <v>44879</v>
       </c>
       <c r="B135" t="n">
         <v>1</v>
@@ -5566,13 +5566,13 @@
         <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5584,7 +5584,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K135" t="n">
         <v>1</v>
@@ -5595,7 +5595,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44956</v>
+        <v>44886</v>
       </c>
       <c r="B136" t="n">
         <v>1</v>
@@ -5622,18 +5622,18 @@
         <v>1</v>
       </c>
       <c r="J136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K136" t="n">
         <v>1</v>
       </c>
       <c r="L136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44963</v>
+        <v>44893</v>
       </c>
       <c r="B137" t="n">
         <v>1</v>
@@ -5642,16 +5642,16 @@
         <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
         <v>1</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
         <v>1</v>
@@ -5666,12 +5666,12 @@
         <v>1</v>
       </c>
       <c r="L137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44970</v>
+        <v>44900</v>
       </c>
       <c r="B138" t="n">
         <v>1</v>
@@ -5683,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="E138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138" t="n">
         <v>1</v>
@@ -5701,7 +5701,7 @@
         <v>1</v>
       </c>
       <c r="K138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
         <v>1</v>
@@ -5709,7 +5709,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44974</v>
+        <v>44907</v>
       </c>
       <c r="B139" t="n">
         <v>1</v>
@@ -5718,7 +5718,7 @@
         <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E139" t="n">
         <v>1</v>
@@ -5747,7 +5747,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44984</v>
+        <v>44914</v>
       </c>
       <c r="B140" t="n">
         <v>1</v>
@@ -5785,7 +5785,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44991</v>
+        <v>44918</v>
       </c>
       <c r="B141" t="n">
         <v>1</v>
@@ -5797,10 +5797,10 @@
         <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5823,7 +5823,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44998</v>
+        <v>44925</v>
       </c>
       <c r="B142" t="n">
         <v>1</v>
@@ -5838,10 +5838,10 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
         <v>1</v>
@@ -5861,10 +5861,10 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45005</v>
+        <v>44935</v>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C143" t="n">
         <v>1</v>
@@ -5879,7 +5879,7 @@
         <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143" t="n">
         <v>1</v>
@@ -5899,13 +5899,13 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45012</v>
+        <v>44939</v>
       </c>
       <c r="B144" t="n">
         <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144" t="n">
         <v>1</v>
@@ -5937,19 +5937,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45019</v>
+        <v>44949</v>
       </c>
       <c r="B145" t="n">
         <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
         <v>1</v>
@@ -5975,7 +5975,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45026</v>
+        <v>44956</v>
       </c>
       <c r="B146" t="n">
         <v>1</v>
@@ -6005,15 +6005,15 @@
         <v>1</v>
       </c>
       <c r="K146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45033</v>
+        <v>44963</v>
       </c>
       <c r="B147" t="n">
         <v>1</v>
@@ -6022,16 +6022,16 @@
         <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
         <v>1</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147" t="n">
         <v>1</v>
@@ -6040,7 +6040,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K147" t="n">
         <v>1</v>
@@ -6051,10 +6051,10 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45040</v>
+        <v>44970</v>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148" t="n">
         <v>1</v>
@@ -6072,10 +6072,10 @@
         <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="n">
         <v>1</v>
@@ -6089,7 +6089,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45047</v>
+        <v>44974</v>
       </c>
       <c r="B149" t="n">
         <v>1</v>
@@ -6127,7 +6127,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45054</v>
+        <v>44984</v>
       </c>
       <c r="B150" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45061</v>
+        <v>44991</v>
       </c>
       <c r="B151" t="n">
         <v>1</v>
@@ -6174,10 +6174,10 @@
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
         <v>1</v>
@@ -6203,25 +6203,25 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45068</v>
+        <v>44998</v>
       </c>
       <c r="B152" t="n">
         <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152" t="n">
         <v>1</v>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152" t="n">
         <v>1</v>
@@ -6233,7 +6233,7 @@
         <v>1</v>
       </c>
       <c r="K152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L152" t="n">
         <v>1</v>
@@ -6241,7 +6241,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45072</v>
+        <v>45005</v>
       </c>
       <c r="B153" t="n">
         <v>1</v>
@@ -6253,13 +6253,13 @@
         <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" t="n">
         <v>1</v>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
         <v>1</v>
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="K153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L153" t="n">
         <v>1</v>
@@ -6279,31 +6279,31 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45082</v>
+        <v>45012</v>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" t="n">
         <v>1</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
         <v>1</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="n">
         <v>1</v>
@@ -6317,13 +6317,13 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45089</v>
+        <v>45019</v>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
         <v>1</v>
@@ -6338,16 +6338,16 @@
         <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L155" t="n">
         <v>1</v>
@@ -6355,7 +6355,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45096</v>
+        <v>45026</v>
       </c>
       <c r="B156" t="n">
         <v>1</v>
@@ -6379,13 +6379,13 @@
         <v>1</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="n">
         <v>1</v>
       </c>
       <c r="K156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L156" t="n">
         <v>1</v>
@@ -6393,7 +6393,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45103</v>
+        <v>45033</v>
       </c>
       <c r="B157" t="n">
         <v>1</v>
@@ -6408,7 +6408,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6420,7 +6420,7 @@
         <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K157" t="n">
         <v>1</v>
@@ -6431,10 +6431,10 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45110</v>
+        <v>45040</v>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
         <v>1</v>
@@ -6449,13 +6449,13 @@
         <v>1</v>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="n">
         <v>1</v>
@@ -6469,7 +6469,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45117</v>
+        <v>45047</v>
       </c>
       <c r="B159" t="n">
         <v>1</v>
@@ -6507,7 +6507,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45124</v>
+        <v>45054</v>
       </c>
       <c r="B160" t="n">
         <v>1</v>
@@ -6534,7 +6534,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K160" t="n">
         <v>1</v>
@@ -6545,7 +6545,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45131</v>
+        <v>45061</v>
       </c>
       <c r="B161" t="n">
         <v>1</v>
@@ -6554,10 +6554,10 @@
         <v>1</v>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
         <v>1</v>
@@ -6566,13 +6566,13 @@
         <v>1</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
       </c>
       <c r="J161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K161" t="n">
         <v>1</v>
@@ -6583,19 +6583,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45138</v>
+        <v>45068</v>
       </c>
       <c r="B162" t="n">
         <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
         <v>1</v>
@@ -6604,16 +6604,16 @@
         <v>1</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L162" t="n">
         <v>1</v>
@@ -6621,25 +6621,25 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45145</v>
+        <v>45072</v>
       </c>
       <c r="B163" t="n">
         <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D163" t="n">
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163" t="n">
         <v>1</v>
@@ -6648,27 +6648,27 @@
         <v>1</v>
       </c>
       <c r="J163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45152</v>
+        <v>45082</v>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" t="n">
         <v>1</v>
       </c>
       <c r="D164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
@@ -6677,13 +6677,13 @@
         <v>1</v>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164" t="n">
         <v>1</v>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="n">
         <v>1</v>
@@ -6697,10 +6697,10 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45159</v>
+        <v>45089</v>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
         <v>1</v>
@@ -6709,7 +6709,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165" t="n">
         <v>1</v>
@@ -6721,13 +6721,13 @@
         <v>1</v>
       </c>
       <c r="I165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="n">
         <v>0</v>
       </c>
       <c r="K165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L165" t="n">
         <v>1</v>
@@ -6735,7 +6735,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45166</v>
+        <v>45096</v>
       </c>
       <c r="B166" t="n">
         <v>1</v>
@@ -6747,7 +6747,7 @@
         <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166" t="n">
         <v>1</v>
@@ -6759,10 +6759,10 @@
         <v>1</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K166" t="n">
         <v>1</v>
@@ -6773,10 +6773,10 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45170</v>
+        <v>45103</v>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167" t="n">
         <v>1</v>
@@ -6788,7 +6788,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6803,7 +6803,7 @@
         <v>1</v>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L167" t="n">
         <v>1</v>
@@ -6811,7 +6811,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45180</v>
+        <v>45110</v>
       </c>
       <c r="B168" t="n">
         <v>1</v>
@@ -6829,7 +6829,7 @@
         <v>1</v>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168" t="n">
         <v>1</v>
@@ -6849,7 +6849,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45187</v>
+        <v>45117</v>
       </c>
       <c r="B169" t="n">
         <v>1</v>
@@ -6887,7 +6887,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45194</v>
+        <v>45124</v>
       </c>
       <c r="B170" t="n">
         <v>1</v>
@@ -6899,7 +6899,7 @@
         <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
         <v>1</v>
@@ -6914,27 +6914,27 @@
         <v>1</v>
       </c>
       <c r="J170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K170" t="n">
         <v>1</v>
       </c>
       <c r="L170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45201</v>
+        <v>45131</v>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171" t="n">
         <v>1</v>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
@@ -6952,10 +6952,10 @@
         <v>1</v>
       </c>
       <c r="J171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L171" t="n">
         <v>1</v>
@@ -6963,19 +6963,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45208</v>
+        <v>45138</v>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172" t="n">
         <v>1</v>
@@ -6984,16 +6984,16 @@
         <v>1</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L172" t="n">
         <v>1</v>
@@ -7001,10 +7001,10 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45215</v>
+        <v>45145</v>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
@@ -7013,33 +7013,33 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45222</v>
+        <v>45152</v>
       </c>
       <c r="B174" t="n">
         <v>1</v>
@@ -7051,7 +7051,7 @@
         <v>1</v>
       </c>
       <c r="E174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174" t="n">
         <v>1</v>
@@ -7069,7 +7069,7 @@
         <v>1</v>
       </c>
       <c r="K174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L174" t="n">
         <v>1</v>
@@ -7077,7 +7077,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45229</v>
+        <v>45159</v>
       </c>
       <c r="B175" t="n">
         <v>1</v>
@@ -7089,7 +7089,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175" t="n">
         <v>1</v>
@@ -7104,18 +7104,18 @@
         <v>1</v>
       </c>
       <c r="J175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K175" t="n">
         <v>1</v>
       </c>
       <c r="L175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45236</v>
+        <v>45166</v>
       </c>
       <c r="B176" t="n">
         <v>1</v>
@@ -7127,7 +7127,7 @@
         <v>1</v>
       </c>
       <c r="E176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176" t="n">
         <v>1</v>
@@ -7142,7 +7142,7 @@
         <v>1</v>
       </c>
       <c r="J176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K176" t="n">
         <v>1</v>
@@ -7153,10 +7153,10 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45243</v>
+        <v>45170</v>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
         <v>1</v>
@@ -7183,7 +7183,7 @@
         <v>1</v>
       </c>
       <c r="K177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L177" t="n">
         <v>1</v>
@@ -7191,7 +7191,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45250</v>
+        <v>45180</v>
       </c>
       <c r="B178" t="n">
         <v>1</v>
@@ -7218,18 +7218,18 @@
         <v>1</v>
       </c>
       <c r="J178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K178" t="n">
         <v>1</v>
       </c>
       <c r="L178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45257</v>
+        <v>45187</v>
       </c>
       <c r="B179" t="n">
         <v>1</v>
@@ -7256,18 +7256,18 @@
         <v>1</v>
       </c>
       <c r="J179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K179" t="n">
         <v>1</v>
       </c>
       <c r="L179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45264</v>
+        <v>45194</v>
       </c>
       <c r="B180" t="n">
         <v>1</v>
@@ -7279,7 +7279,7 @@
         <v>1</v>
       </c>
       <c r="E180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180" t="n">
         <v>1</v>
@@ -7294,7 +7294,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K180" t="n">
         <v>1</v>
@@ -7305,37 +7305,37 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45271</v>
+        <v>45201</v>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181" t="n">
         <v>1</v>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
       </c>
       <c r="J181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L181" t="n">
         <v>1</v>
@@ -7343,19 +7343,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45278</v>
+        <v>45208</v>
       </c>
       <c r="B182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182" t="n">
         <v>1</v>
@@ -7373,7 +7373,7 @@
         <v>1</v>
       </c>
       <c r="K182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L182" t="n">
         <v>1</v>
@@ -7381,37 +7381,37 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45282</v>
+        <v>45215</v>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D183" t="n">
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
         <v>1</v>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" t="n">
         <v>1</v>
       </c>
       <c r="K183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L183" t="n">
         <v>1</v>
@@ -7419,7 +7419,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45289</v>
+        <v>45222</v>
       </c>
       <c r="B184" t="n">
         <v>1</v>
@@ -7449,7 +7449,7 @@
         <v>1</v>
       </c>
       <c r="K184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L184" t="n">
         <v>1</v>
@@ -7457,7 +7457,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45299</v>
+        <v>45229</v>
       </c>
       <c r="B185" t="n">
         <v>1</v>
@@ -7481,21 +7481,21 @@
         <v>1</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="n">
         <v>1</v>
       </c>
       <c r="K185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45303</v>
+        <v>45236</v>
       </c>
       <c r="B186" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45313</v>
+        <v>45243</v>
       </c>
       <c r="B187" t="n">
         <v>1</v>
@@ -7571,7 +7571,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45320</v>
+        <v>45250</v>
       </c>
       <c r="B188" t="n">
         <v>1</v>
@@ -7598,7 +7598,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K188" t="n">
         <v>1</v>
@@ -7609,19 +7609,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45327</v>
+        <v>45257</v>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D189" t="n">
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
         <v>1</v>
@@ -7636,10 +7636,10 @@
         <v>1</v>
       </c>
       <c r="J189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L189" t="n">
         <v>0</v>
@@ -7647,7 +7647,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45334</v>
+        <v>45264</v>
       </c>
       <c r="B190" t="n">
         <v>1</v>
@@ -7677,15 +7677,15 @@
         <v>0</v>
       </c>
       <c r="K190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45338</v>
+        <v>45271</v>
       </c>
       <c r="B191" t="n">
         <v>1</v>
@@ -7697,7 +7697,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -7712,7 +7712,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K191" t="n">
         <v>1</v>
@@ -7723,7 +7723,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45348</v>
+        <v>45278</v>
       </c>
       <c r="B192" t="n">
         <v>1</v>
@@ -7735,19 +7735,19 @@
         <v>1</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="n">
         <v>1</v>
@@ -7761,7 +7761,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45355</v>
+        <v>45282</v>
       </c>
       <c r="B193" t="n">
         <v>1</v>
@@ -7773,7 +7773,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193" t="n">
         <v>1</v>
@@ -7782,7 +7782,7 @@
         <v>1</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>1</v>
@@ -7791,7 +7791,7 @@
         <v>1</v>
       </c>
       <c r="K193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L193" t="n">
         <v>1</v>
@@ -7799,7 +7799,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45362</v>
+        <v>45289</v>
       </c>
       <c r="B194" t="n">
         <v>1</v>
@@ -7811,7 +7811,7 @@
         <v>1</v>
       </c>
       <c r="E194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194" t="n">
         <v>1</v>
@@ -7820,7 +7820,7 @@
         <v>1</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -7829,15 +7829,15 @@
         <v>1</v>
       </c>
       <c r="K194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45369</v>
+        <v>45299</v>
       </c>
       <c r="B195" t="n">
         <v>1</v>
@@ -7858,24 +7858,24 @@
         <v>1</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="n">
         <v>1</v>
       </c>
       <c r="K195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45376</v>
+        <v>45303</v>
       </c>
       <c r="B196" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         <v>1</v>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
         <v>1</v>
@@ -7905,15 +7905,15 @@
         <v>1</v>
       </c>
       <c r="K196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45383</v>
+        <v>45313</v>
       </c>
       <c r="B197" t="n">
         <v>1</v>
@@ -7922,7 +7922,7 @@
         <v>1</v>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E197" t="n">
         <v>1</v>
@@ -7940,18 +7940,18 @@
         <v>1</v>
       </c>
       <c r="J197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K197" t="n">
         <v>1</v>
       </c>
       <c r="L197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45390</v>
+        <v>45320</v>
       </c>
       <c r="B198" t="n">
         <v>1</v>
@@ -7963,7 +7963,7 @@
         <v>1</v>
       </c>
       <c r="E198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198" t="n">
         <v>1</v>
@@ -7984,15 +7984,15 @@
         <v>1</v>
       </c>
       <c r="L198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45397</v>
+        <v>45327</v>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -8016,18 +8016,18 @@
         <v>1</v>
       </c>
       <c r="J199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45404</v>
+        <v>45334</v>
       </c>
       <c r="B200" t="n">
         <v>1</v>
@@ -8036,10 +8036,10 @@
         <v>1</v>
       </c>
       <c r="D200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200" t="n">
         <v>1</v>
@@ -8051,13 +8051,13 @@
         <v>1</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J200" t="n">
         <v>0</v>
       </c>
       <c r="K200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
         <v>1</v>
@@ -8065,31 +8065,31 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45411</v>
+        <v>45338</v>
       </c>
       <c r="B201" t="n">
         <v>1</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
         <v>1</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="n">
         <v>1</v>
@@ -8103,13 +8103,13 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45418</v>
+        <v>45348</v>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D202" t="n">
         <v>1</v>
@@ -8130,7 +8130,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K202" t="n">
         <v>1</v>
@@ -8141,7 +8141,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45425</v>
+        <v>45355</v>
       </c>
       <c r="B203" t="n">
         <v>1</v>
@@ -8153,7 +8153,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203" t="n">
         <v>1</v>
@@ -8162,7 +8162,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>1</v>
@@ -8171,7 +8171,7 @@
         <v>1</v>
       </c>
       <c r="K203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L203" t="n">
         <v>1</v>
@@ -8179,7 +8179,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45432</v>
+        <v>45362</v>
       </c>
       <c r="B204" t="n">
         <v>1</v>
@@ -8191,7 +8191,7 @@
         <v>1</v>
       </c>
       <c r="E204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204" t="n">
         <v>1</v>
@@ -8200,7 +8200,7 @@
         <v>1</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>1</v>
@@ -8209,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="K204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L204" t="n">
         <v>0</v>
@@ -8217,7 +8217,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45436</v>
+        <v>45369</v>
       </c>
       <c r="B205" t="n">
         <v>1</v>
@@ -8255,10 +8255,10 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45446</v>
+        <v>45376</v>
       </c>
       <c r="B206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C206" t="n">
         <v>1</v>
@@ -8282,18 +8282,18 @@
         <v>1</v>
       </c>
       <c r="J206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45453</v>
+        <v>45383</v>
       </c>
       <c r="B207" t="n">
         <v>1</v>
@@ -8323,15 +8323,15 @@
         <v>0</v>
       </c>
       <c r="K207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45460</v>
+        <v>45390</v>
       </c>
       <c r="B208" t="n">
         <v>1</v>
@@ -8369,13 +8369,13 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45467</v>
+        <v>45397</v>
       </c>
       <c r="B209" t="n">
         <v>1</v>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D209" t="n">
         <v>1</v>
@@ -8396,18 +8396,18 @@
         <v>1</v>
       </c>
       <c r="J209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45474</v>
+        <v>45404</v>
       </c>
       <c r="B210" t="n">
         <v>1</v>
@@ -8425,7 +8425,7 @@
         <v>1</v>
       </c>
       <c r="G210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H210" t="n">
         <v>1</v>
@@ -8434,10 +8434,10 @@
         <v>0</v>
       </c>
       <c r="J210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L210" t="n">
         <v>1</v>
@@ -8445,16 +8445,16 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45481</v>
+        <v>45411</v>
       </c>
       <c r="B211" t="n">
         <v>1</v>
       </c>
       <c r="C211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E211" t="n">
         <v>0</v>
@@ -8466,13 +8466,13 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K211" t="n">
         <v>1</v>
@@ -8483,28 +8483,28 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45488</v>
+        <v>45418</v>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D212" t="n">
         <v>1</v>
       </c>
       <c r="E212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -8521,7 +8521,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45495</v>
+        <v>45425</v>
       </c>
       <c r="B213" t="n">
         <v>1</v>
@@ -8533,7 +8533,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213" t="n">
         <v>1</v>
@@ -8554,12 +8554,12 @@
         <v>1</v>
       </c>
       <c r="L213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45502</v>
+        <v>45432</v>
       </c>
       <c r="B214" t="n">
         <v>1</v>
@@ -8571,10 +8571,10 @@
         <v>1</v>
       </c>
       <c r="E214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8583,21 +8583,21 @@
         <v>1</v>
       </c>
       <c r="I214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" t="n">
         <v>1</v>
       </c>
       <c r="K214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45509</v>
+        <v>45436</v>
       </c>
       <c r="B215" t="n">
         <v>1</v>
@@ -8606,19 +8606,19 @@
         <v>1</v>
       </c>
       <c r="D215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>1</v>
@@ -8630,30 +8630,30 @@
         <v>1</v>
       </c>
       <c r="L215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45516</v>
+        <v>45446</v>
       </c>
       <c r="B216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C216" t="n">
         <v>1</v>
       </c>
       <c r="D216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216" t="n">
         <v>1</v>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216" t="n">
         <v>1</v>
@@ -8662,21 +8662,21 @@
         <v>1</v>
       </c>
       <c r="J216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K216" t="n">
         <v>1</v>
       </c>
       <c r="L216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45523</v>
+        <v>45453</v>
       </c>
       <c r="B217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C217" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         <v>0</v>
       </c>
       <c r="E217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217" t="n">
         <v>1</v>
@@ -8694,7 +8694,7 @@
         <v>1</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
@@ -8703,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="K217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L217" t="n">
         <v>1</v>
@@ -8711,7 +8711,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45530</v>
+        <v>45460</v>
       </c>
       <c r="B218" t="n">
         <v>1</v>
@@ -8720,7 +8720,7 @@
         <v>1</v>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E218" t="n">
         <v>0</v>
@@ -8732,13 +8732,13 @@
         <v>1</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
       </c>
       <c r="J218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K218" t="n">
         <v>1</v>
@@ -8749,39 +8749,419 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1</v>
+      </c>
+      <c r="G219" t="n">
+        <v>1</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>1</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1</v>
+      </c>
+      <c r="G222" t="n">
+        <v>1</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1</v>
+      </c>
+      <c r="G223" t="n">
+        <v>1</v>
+      </c>
+      <c r="H223" t="n">
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="n">
+        <v>1</v>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0</v>
+      </c>
+      <c r="G224" t="n">
+        <v>1</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>1</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0</v>
+      </c>
+      <c r="G225" t="n">
+        <v>1</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1</v>
+      </c>
+      <c r="J225" t="n">
+        <v>1</v>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J226" t="n">
+        <v>1</v>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>1</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
         <v>45534</v>
       </c>
-      <c r="B219" t="n">
-        <v>1</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1</v>
-      </c>
-      <c r="D219" t="n">
-        <v>1</v>
-      </c>
-      <c r="E219" t="n">
-        <v>1</v>
-      </c>
-      <c r="F219" t="n">
-        <v>1</v>
-      </c>
-      <c r="G219" t="n">
-        <v>1</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>1</v>
-      </c>
-      <c r="J219" t="n">
-        <v>1</v>
-      </c>
-      <c r="K219" t="n">
-        <v>1</v>
-      </c>
-      <c r="L219" t="n">
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1</v>
+      </c>
+      <c r="G229" t="n">
+        <v>1</v>
+      </c>
+      <c r="H229" t="n">
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" t="n">
+        <v>1</v>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="n">
         <v>1</v>
       </c>
     </row>
